--- a/organizational/iterations_io.xlsx
+++ b/organizational/iterations_io.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\organizational\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
     <sheet name="Orbiter" sheetId="2" r:id="rId2"/>
     <sheet name="Probe" sheetId="3" r:id="rId3"/>
+    <sheet name="Timeline" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
   <si>
     <t>Pointing Direction</t>
   </si>
@@ -221,9 +222,6 @@
   </si>
   <si>
     <t>Outputs</t>
-  </si>
-  <si>
-    <t>Effects</t>
   </si>
   <si>
     <t>Accuracy</t>
@@ -398,6 +396,27 @@
   </si>
   <si>
     <t>For this iteration, assuming guided descent. As indicated in phoenix lander, the landing footprint is large using lifing or ballistic entry, and a guided descent can halp pinpoint the landing location. Due to our requirements to be a minimum distance from other landers, ensuring this is a must.</t>
+  </si>
+  <si>
+    <t>Affects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbiter </t>
+  </si>
+  <si>
+    <t>Determine Requirements</t>
+  </si>
+  <si>
+    <t>Quantify Disturbances</t>
+  </si>
+  <si>
+    <t>Budgets update</t>
+  </si>
+  <si>
+    <t>Define Control Law</t>
+  </si>
+  <si>
+    <t>Probes</t>
   </si>
 </sst>
 </file>
@@ -902,9 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -963,15 +979,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1036,26 +1043,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1067,15 +1065,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1088,26 +1077,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1119,15 +1090,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1140,20 +1102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1197,41 +1150,107 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1524,13 +1543,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="5" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="83.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1539,7 +1558,7 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1547,39 +1566,39 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="J3" s="4" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="24"/>
+      <c r="J3" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="29"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1590,95 +1609,95 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="40"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="39" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1686,7 +1705,7 @@
       <c r="A11" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1696,132 +1715,132 @@
     </row>
     <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="32"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="32"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="32"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="3:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1862,282 +1881,282 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="42" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
-        <v>95</v>
+      <c r="A1" s="95" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="110"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="72" t="s">
+      <c r="A4" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="112"/>
+      <c r="D6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="112"/>
+      <c r="D7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="112"/>
+      <c r="D8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="113"/>
+      <c r="D9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="116"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="111" t="s">
+      <c r="G10" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="126"/>
+      <c r="D11" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="127"/>
+      <c r="D12" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="104"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="130" t="s">
+      <c r="G13" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="112"/>
+      <c r="D14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="112"/>
+      <c r="D15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="113"/>
+      <c r="D16" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="112" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="70"/>
-      <c r="D6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="70"/>
-      <c r="D7" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="70"/>
-      <c r="D8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="71"/>
-      <c r="D9" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="56"/>
-      <c r="D11" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="63"/>
-      <c r="D12" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="114"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="70"/>
-      <c r="D14" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="70"/>
-      <c r="D15" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="71"/>
-      <c r="D16" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="65"/>
-      <c r="I16" s="114"/>
-    </row>
-    <row r="17" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="109" t="str">
+      <c r="E17" s="87" t="str">
         <f>G5</f>
         <v>Orbit Insertion
 Acquisition
@@ -2145,558 +2164,552 @@
 Slew
 Safe</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="F17" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="112"/>
+      <c r="D18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="70"/>
-      <c r="D18" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="70"/>
-      <c r="D19" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="40"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="70"/>
-      <c r="D20" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="87" t="str">
+      <c r="C20" s="112"/>
+      <c r="D20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="71" t="str">
         <f>G10</f>
         <v>0.1 - 0.5 deg</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="40"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="71"/>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="113"/>
+      <c r="D21" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="114"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="60" t="s">
+      <c r="C22" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="112"/>
+      <c r="D23" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="113"/>
+      <c r="D24" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="70"/>
-      <c r="D23" s="47" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="71"/>
-      <c r="D24" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="96" t="s">
+      <c r="D25" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="73"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="112"/>
+      <c r="D26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="112"/>
+      <c r="D27" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="128" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="113"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="70"/>
-      <c r="D26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="70"/>
-      <c r="D27" s="47" t="s">
+      <c r="G27" s="75"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="112"/>
+      <c r="D28" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="112"/>
+      <c r="D29" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="121" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="70"/>
-      <c r="D28" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="70"/>
-      <c r="D29" s="47" t="s">
+      <c r="G29" s="75"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="113"/>
+      <c r="D30" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="121" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="92"/>
+    </row>
+    <row r="31" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="40"/>
-    </row>
-    <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="71"/>
-      <c r="D30" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="114"/>
-    </row>
-    <row r="31" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="40"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="57"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="40"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="57"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="40"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="57"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="40"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="57"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="40"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="57"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="40"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="57"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="40"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="36"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="57"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="40"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="57"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="40"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="57"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="40"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="57"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="40"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="57"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="40"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="57"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="40"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="57"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="40"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="36"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="57"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="40"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="57"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="40"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="57"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="40"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="57"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="40"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="57"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="40"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="57"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="40"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="57"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="40"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="57"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="40"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="57"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="40"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="57"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="40"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="57"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="40"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="57"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="40"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="36"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="57"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="40"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="57"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="40"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="57"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="40"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="57"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="40"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="57"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="40"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="36"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="57"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="40"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="36"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="57"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="40"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="36"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="57"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="40"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="36"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="57"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="40"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="57"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="40"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="36"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="57"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="40"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="36"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="57"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="40"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="36"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="57"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="40"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="36"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="57"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="40"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="36"/>
     </row>
     <row r="71" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="58"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="43"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="F5:F9"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C13:C16"/>
@@ -2707,6 +2720,12 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="F5:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2716,830 +2735,922 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="42" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="72" t="s">
+      <c r="A4" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="112"/>
+      <c r="D6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="112"/>
+      <c r="D7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="113"/>
+      <c r="D8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="G9" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="126"/>
+      <c r="D10" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="127"/>
+      <c r="D11" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="104"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="102" t="s">
+      <c r="G12" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="112"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="112"/>
+      <c r="D14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="113"/>
+      <c r="D15" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="70"/>
-      <c r="D6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="48" t="s">
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="75"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="112"/>
+      <c r="D17" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="49"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="70"/>
-      <c r="D7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="71"/>
-      <c r="D8" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="62"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="56"/>
-      <c r="D10" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="87" t="s">
+      <c r="E17" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="115"/>
+      <c r="G17" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="132"/>
+    </row>
+    <row r="18" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="112"/>
+      <c r="D18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="70"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="70"/>
-      <c r="D14" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="71"/>
-      <c r="D15" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="70"/>
-      <c r="D17" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="70"/>
-      <c r="D18" s="47" t="s">
+      <c r="E18" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="32" t="s">
+    </row>
+    <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="112"/>
+      <c r="D19" s="43" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="70"/>
-      <c r="D19" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="132" t="str">
+      <c r="E19" s="106" t="str">
         <f>G9</f>
         <v>not used</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="32"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="71"/>
-      <c r="D20" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="129"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="101"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="116"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="60" t="s">
+      <c r="C21" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="73"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="112"/>
+      <c r="D22" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="113"/>
+      <c r="D23" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="70"/>
-      <c r="D22" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-    </row>
-    <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="71"/>
-      <c r="D23" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="112"/>
+      <c r="D25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="112"/>
+      <c r="D26" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="128" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="113"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="70"/>
-      <c r="D25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="40"/>
-    </row>
-    <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="70"/>
-      <c r="D26" s="47" t="s">
+      <c r="G26" s="75"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="112"/>
+      <c r="D27" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="112"/>
+      <c r="D28" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="121" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="70"/>
-      <c r="D27" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C28" s="70"/>
-      <c r="D28" s="47" t="s">
+      <c r="G28" s="75"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="113"/>
+      <c r="D29" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="121" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="92"/>
+    </row>
+    <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="71"/>
-      <c r="D29" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="114"/>
-    </row>
-    <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="40"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="57"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="57"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="57"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="57"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="57"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="57"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="57"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="57"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="57"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="57"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="57"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="57"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="57"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="57"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="49"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="57"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="57"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="49"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="57"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="57"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="49"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="57"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="57"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="57"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="49"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="57"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="57"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="57"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="45"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="57"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="57"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="49"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="57"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="49"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="45"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="57"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="49"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="57"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="49"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="57"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="45"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="57"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="57"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="49"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="45"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="57"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="49"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="45"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="57"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="49"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="45"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="57"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="49"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="45"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="57"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="45"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="57"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="45"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="57"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="49"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="45"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="57"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="45"/>
     </row>
     <row r="70" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="58"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="52"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="F16:F20"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/organizational/iterations_io.xlsx
+++ b/organizational/iterations_io.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
   <si>
     <t>Pointing Direction</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>Probes</t>
+  </si>
+  <si>
+    <t>Nominal rates</t>
+  </si>
+  <si>
+    <t>Full range</t>
+  </si>
+  <si>
+    <t>Nominal (0.05 - 0.5 deg/s)</t>
   </si>
 </sst>
 </file>
@@ -914,7 +923,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1186,6 +1195,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,54 +1222,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1882,7 +1893,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1903,7 @@
     <col min="4" max="4" width="19.5703125" style="19" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="24" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" style="4" customWidth="1"/>
   </cols>
@@ -1906,27 +1917,27 @@
       <c r="A2" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="130"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="66"/>
       <c r="I3" s="88"/>
     </row>
@@ -1954,7 +1965,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="129" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -1963,10 +1974,10 @@
       <c r="E5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="120" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="50"/>
@@ -1975,59 +1986,59 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="112"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="123"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="121"/>
       <c r="H6" s="44"/>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="112"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="123"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="44"/>
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="112"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="43" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="123"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="121"/>
       <c r="H8" s="44"/>
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="113"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="124"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="44"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="54" t="s">
@@ -2050,7 +2061,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="126"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="43" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2076,7 @@
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="127"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="57" t="s">
         <v>50</v>
       </c>
@@ -2078,7 +2089,7 @@
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="114" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -2090,14 +2101,14 @@
       <c r="F13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="83" t="s">
-        <v>90</v>
+      <c r="G13" t="s">
+        <v>121</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="112"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
@@ -2116,12 +2127,12 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="112"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="81" t="s">
-        <v>90</v>
+      <c r="E15" t="s">
+        <v>120</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>69</v>
@@ -2133,7 +2144,7 @@
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="113"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="57" t="s">
         <v>110</v>
       </c>
@@ -2143,14 +2154,14 @@
       <c r="F16" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="85" t="s">
-        <v>90</v>
+      <c r="G16" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="114" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="43" t="s">
@@ -2164,7 +2175,7 @@
 Slew
 Safe</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="117" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="75"/>
@@ -2174,14 +2185,14 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="112"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="115"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="75" t="s">
         <v>80</v>
       </c>
@@ -2189,18 +2200,18 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="112"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="43" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="115"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="75"/>
       <c r="H19" s="44"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="112"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="43" t="s">
         <v>63</v>
       </c>
@@ -2208,33 +2219,33 @@
         <f>G10</f>
         <v>0.1 - 0.5 deg</v>
       </c>
-      <c r="F20" s="115"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="75"/>
       <c r="H20" s="44"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="113"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="57" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="116"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="74"/>
       <c r="H21" s="58"/>
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="114" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="117" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="73"/>
@@ -2242,36 +2253,36 @@
       <c r="I22" s="56"/>
     </row>
     <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="112"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="43" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="115"/>
+      <c r="F23" s="118"/>
       <c r="G23" s="75"/>
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="113"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="57" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="99"/>
-      <c r="F24" s="116"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="74"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59"/>
     </row>
     <row r="25" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="114" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="117" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="73"/>
@@ -2279,23 +2290,23 @@
       <c r="I25" s="91"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="112"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="43" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="115"/>
+      <c r="F26" s="118"/>
       <c r="G26" s="75"/>
       <c r="H26" s="44"/>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="112"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="118" t="s">
         <v>106</v>
       </c>
       <c r="G27" s="75"/>
@@ -2303,23 +2314,23 @@
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="112"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="115"/>
+      <c r="F28" s="118"/>
       <c r="G28" s="75"/>
       <c r="H28" s="44"/>
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="112"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="118" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="75"/>
@@ -2327,12 +2338,12 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="113"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="57" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="116"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="74"/>
       <c r="H30" s="58"/>
       <c r="I30" s="92"/>
@@ -2710,6 +2721,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="F5:F9"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C13:C16"/>
@@ -2720,12 +2737,6 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="F5:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2735,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,27 +2767,27 @@
       <c r="A2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="130"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="66"/>
       <c r="I3" s="67"/>
     </row>
@@ -2804,7 +2815,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="129" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -2816,7 +2827,7 @@
       <c r="F5" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="120" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="50"/>
@@ -2825,7 +2836,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="112"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
@@ -2833,14 +2844,14 @@
         <v>31</v>
       </c>
       <c r="F6" s="52"/>
-      <c r="G6" s="123"/>
+      <c r="G6" s="121"/>
       <c r="H6" s="44" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="112"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="43" t="s">
         <v>6</v>
       </c>
@@ -2848,12 +2859,12 @@
         <v>32</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="123"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="113"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="43" t="s">
         <v>50</v>
       </c>
@@ -2861,12 +2872,12 @@
         <v>34</v>
       </c>
       <c r="F8" s="102"/>
-      <c r="G8" s="124"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="54" t="s">
@@ -2885,7 +2896,7 @@
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="126"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="43" t="s">
         <v>7</v>
       </c>
@@ -2902,7 +2913,7 @@
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="127"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="57" t="s">
         <v>6</v>
       </c>
@@ -2915,7 +2926,7 @@
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="114" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -2934,7 +2945,7 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="112"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="43"/>
       <c r="E13" s="9"/>
       <c r="F13" s="52" t="s">
@@ -2949,7 +2960,7 @@
       <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="112"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2977,7 @@
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="113"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="57" t="s">
         <v>47</v>
       </c>
@@ -2983,7 +2994,7 @@
       <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="114" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2992,7 +3003,7 @@
       <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="117" t="s">
         <v>79</v>
       </c>
       <c r="G16" s="75"/>
@@ -3002,14 +3013,14 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="112"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="43" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="115"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="75" t="s">
         <v>80</v>
       </c>
@@ -3017,14 +3028,14 @@
       <c r="I17" s="132"/>
     </row>
     <row r="18" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="112"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="43" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="115"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="75"/>
       <c r="H18" s="44"/>
       <c r="I18" s="28" t="s">
@@ -3032,7 +3043,7 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="112"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="43" t="s">
         <v>89</v>
       </c>
@@ -3040,33 +3051,33 @@
         <f>G9</f>
         <v>not used</v>
       </c>
-      <c r="F19" s="115"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="75"/>
       <c r="H19" s="44"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="113"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="57" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="116"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="74"/>
       <c r="H20" s="58"/>
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="114" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="117" t="s">
         <v>98</v>
       </c>
       <c r="G21" s="73"/>
@@ -3074,36 +3085,36 @@
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="112"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="43" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="115"/>
+      <c r="F22" s="118"/>
       <c r="G22" s="75"/>
       <c r="H22" s="44"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="113"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="57" t="s">
         <v>97</v>
       </c>
       <c r="E23" s="99"/>
-      <c r="F23" s="116"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="74"/>
       <c r="H23" s="58"/>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="114" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="117" t="s">
         <v>105</v>
       </c>
       <c r="G24" s="73"/>
@@ -3111,23 +3122,23 @@
       <c r="I24" s="91"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="112"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="43" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="115"/>
+      <c r="F25" s="118"/>
       <c r="G25" s="75"/>
       <c r="H25" s="44"/>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="112"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="118" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="75"/>
@@ -3135,23 +3146,23 @@
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="112"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="115"/>
+      <c r="F27" s="118"/>
       <c r="G27" s="75"/>
       <c r="H27" s="44"/>
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C28" s="112"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="118" t="s">
         <v>107</v>
       </c>
       <c r="G28" s="75"/>
@@ -3159,12 +3170,12 @@
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="113"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="57" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="116"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="74"/>
       <c r="H29" s="58"/>
       <c r="I29" s="92"/>
@@ -3542,22 +3553,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="G5:G8"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3568,84 +3579,102 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:A16"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="134" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="134">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="134">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="134">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="134">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>118</v>
       </c>
     </row>

--- a/organizational/iterations_io.xlsx
+++ b/organizational/iterations_io.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
   <si>
     <t>Pointing Direction</t>
   </si>
@@ -417,15 +417,6 @@
   </si>
   <si>
     <t>Probes</t>
-  </si>
-  <si>
-    <t>Nominal rates</t>
-  </si>
-  <si>
-    <t>Full range</t>
-  </si>
-  <si>
-    <t>Nominal (0.05 - 0.5 deg/s)</t>
   </si>
 </sst>
 </file>
@@ -923,7 +914,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1195,6 +1186,30 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1204,24 +1219,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,20 +1246,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1893,7 +1882,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1892,7 @@
     <col min="4" max="4" width="19.5703125" style="19" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="24" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="42" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" style="4" customWidth="1"/>
   </cols>
@@ -1917,27 +1906,27 @@
       <c r="A2" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="130"/>
       <c r="H3" s="66"/>
       <c r="I3" s="88"/>
     </row>
@@ -1965,7 +1954,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -1974,10 +1963,10 @@
       <c r="E5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="122" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="50"/>
@@ -1986,59 +1975,59 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="115"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="121"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="44"/>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="115"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="121"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="44"/>
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="115"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="43" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="121"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="44"/>
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="116"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="122"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="44"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="125" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="54" t="s">
@@ -2061,7 +2050,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="124"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="43" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2065,7 @@
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="125"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="57" t="s">
         <v>50</v>
       </c>
@@ -2089,7 +2078,7 @@
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="111" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="43" t="s">
@@ -2101,14 +2090,14 @@
       <c r="F13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
-        <v>121</v>
+      <c r="G13" s="83" t="s">
+        <v>90</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="115"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
@@ -2127,12 +2116,12 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="115"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>120</v>
+      <c r="E15" s="81" t="s">
+        <v>90</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>69</v>
@@ -2144,7 +2133,7 @@
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="116"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="57" t="s">
         <v>110</v>
       </c>
@@ -2154,14 +2143,14 @@
       <c r="F16" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="58" t="s">
-        <v>122</v>
+      <c r="G16" s="85" t="s">
+        <v>90</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="111" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="43" t="s">
@@ -2175,7 +2164,7 @@
 Slew
 Safe</v>
       </c>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="114" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="75"/>
@@ -2185,14 +2174,14 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="115"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="75" t="s">
         <v>80</v>
       </c>
@@ -2200,18 +2189,18 @@
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="115"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="43" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="118"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="75"/>
       <c r="H19" s="44"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="115"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="43" t="s">
         <v>63</v>
       </c>
@@ -2219,33 +2208,33 @@
         <f>G10</f>
         <v>0.1 - 0.5 deg</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="75"/>
       <c r="H20" s="44"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="116"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="57" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="119"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="74"/>
       <c r="H21" s="58"/>
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="111" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="114" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="73"/>
@@ -2253,36 +2242,36 @@
       <c r="I22" s="56"/>
     </row>
     <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="115"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="43" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="118"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="75"/>
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="116"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="57" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="99"/>
-      <c r="F24" s="119"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="74"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59"/>
     </row>
     <row r="25" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="111" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="114" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="73"/>
@@ -2290,23 +2279,23 @@
       <c r="I25" s="91"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="115"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="43" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="118"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="75"/>
       <c r="H26" s="44"/>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="115"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="118" t="s">
+      <c r="F27" s="115" t="s">
         <v>106</v>
       </c>
       <c r="G27" s="75"/>
@@ -2314,23 +2303,23 @@
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="115"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="118"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="75"/>
       <c r="H28" s="44"/>
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="115"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="118" t="s">
+      <c r="F29" s="115" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="75"/>
@@ -2338,12 +2327,12 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="116"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="57" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="119"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="74"/>
       <c r="H30" s="58"/>
       <c r="I30" s="92"/>
@@ -2721,12 +2710,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="F5:F9"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C13:C16"/>
@@ -2737,6 +2720,12 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="F5:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2746,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,27 +2756,27 @@
       <c r="A2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="130"/>
       <c r="H3" s="66"/>
       <c r="I3" s="67"/>
     </row>
@@ -2815,7 +2804,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="117" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -2827,7 +2816,7 @@
       <c r="F5" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="122" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="50"/>
@@ -2836,7 +2825,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="115"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
@@ -2844,14 +2833,14 @@
         <v>31</v>
       </c>
       <c r="F6" s="52"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="44" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="115"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="43" t="s">
         <v>6</v>
       </c>
@@ -2859,12 +2848,12 @@
         <v>32</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="121"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="116"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="43" t="s">
         <v>50</v>
       </c>
@@ -2872,12 +2861,12 @@
         <v>34</v>
       </c>
       <c r="F8" s="102"/>
-      <c r="G8" s="122"/>
+      <c r="G8" s="124"/>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="125" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="54" t="s">
@@ -2896,7 +2885,7 @@
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="124"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="43" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2902,7 @@
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="125"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="57" t="s">
         <v>6</v>
       </c>
@@ -2926,7 +2915,7 @@
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="111" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -2945,7 +2934,7 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="115"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="43"/>
       <c r="E13" s="9"/>
       <c r="F13" s="52" t="s">
@@ -2960,7 +2949,7 @@
       <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="115"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +2966,7 @@
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="116"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="57" t="s">
         <v>47</v>
       </c>
@@ -2994,7 +2983,7 @@
       <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="111" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -3003,7 +2992,7 @@
       <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="117" t="s">
+      <c r="F16" s="114" t="s">
         <v>79</v>
       </c>
       <c r="G16" s="75"/>
@@ -3013,14 +3002,14 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="115"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="43" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="118"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="75" t="s">
         <v>80</v>
       </c>
@@ -3028,14 +3017,14 @@
       <c r="I17" s="132"/>
     </row>
     <row r="18" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="115"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="43" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="75"/>
       <c r="H18" s="44"/>
       <c r="I18" s="28" t="s">
@@ -3043,7 +3032,7 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="115"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="43" t="s">
         <v>89</v>
       </c>
@@ -3051,33 +3040,33 @@
         <f>G9</f>
         <v>not used</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="75"/>
       <c r="H19" s="44"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="116"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="57" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="119"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="74"/>
       <c r="H20" s="58"/>
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="111" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="114" t="s">
         <v>98</v>
       </c>
       <c r="G21" s="73"/>
@@ -3085,36 +3074,36 @@
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="115"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="43" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="118"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="75"/>
       <c r="H22" s="44"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="116"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="57" t="s">
         <v>97</v>
       </c>
       <c r="E23" s="99"/>
-      <c r="F23" s="119"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="74"/>
       <c r="H23" s="58"/>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="111" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="117" t="s">
+      <c r="F24" s="114" t="s">
         <v>105</v>
       </c>
       <c r="G24" s="73"/>
@@ -3122,23 +3111,23 @@
       <c r="I24" s="91"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="115"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="43" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="118"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="75"/>
       <c r="H25" s="44"/>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="115"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="118" t="s">
+      <c r="F26" s="115" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="75"/>
@@ -3146,23 +3135,23 @@
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="115"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="118"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="75"/>
       <c r="H27" s="44"/>
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C28" s="115"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="118" t="s">
+      <c r="F28" s="115" t="s">
         <v>107</v>
       </c>
       <c r="G28" s="75"/>
@@ -3170,12 +3159,12 @@
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="116"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="57" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="119"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="74"/>
       <c r="H29" s="58"/>
       <c r="I29" s="92"/>
@@ -3553,22 +3542,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F21:F23"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="G5:G8"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3579,102 +3568,84 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="134" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="12" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="13" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="134">
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="14" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="134">
-        <v>44016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="15" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="134">
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="134">
-        <v>44016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>118</v>
       </c>
     </row>

--- a/organizational/iterations_io.xlsx
+++ b/organizational/iterations_io.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>orbital maneuvers</t>
   </si>
   <si>
-    <t>Nadir</t>
-  </si>
-  <si>
     <t>Driving</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>Budgets Update</t>
   </si>
   <si>
-    <t>orientation for SA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comms </t>
   </si>
   <si>
@@ -419,20 +413,26 @@
     <t>Probes</t>
   </si>
   <si>
-    <t>Nominal rates</t>
-  </si>
-  <si>
     <t>Full range</t>
   </si>
   <si>
     <t>Nominal (0.05 - 0.5 deg/s)</t>
+  </si>
+  <si>
+    <t>max excursion 23.5deg</t>
+  </si>
+  <si>
+    <t>Nadir, max excursion 42.4deg</t>
+  </si>
+  <si>
+    <t>Nominal rates 90deg-50min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,8 +484,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +521,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -917,13 +929,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1183,6 +1196,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,6 +1210,30 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1204,24 +1243,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,22 +1270,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1583,17 +1599,17 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="24"/>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="107"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="25"/>
@@ -1727,12 +1743,12 @@
     <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="23"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
@@ -1892,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1917,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="42" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="42" customWidth="1"/>
     <col min="7" max="7" width="24" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1910,62 +1926,63 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="131"/>
+      <c r="F3" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="66"/>
       <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
-        <v>93</v>
-      </c>
+      <c r="A4" s="135"/>
       <c r="D4" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="129" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="119" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -1974,114 +1991,114 @@
       <c r="E5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="120" t="s">
-        <v>73</v>
+      <c r="G5" s="124" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="115"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="121"/>
+        <v>70</v>
+      </c>
+      <c r="F6" s="117"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="44"/>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="115"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="121"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="44"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="115"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="114"/>
       <c r="D8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="121"/>
+      <c r="E8" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="117"/>
+      <c r="G8" s="125"/>
       <c r="H8" s="44"/>
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="116"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="122"/>
+      <c r="E9" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="118"/>
+      <c r="G9" s="126"/>
       <c r="H9" s="44"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="68" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="124"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="125"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="57" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="104"/>
       <c r="G12" s="74"/>
@@ -2089,80 +2106,80 @@
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="113" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="115"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="115"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="116"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="114" t="s">
-        <v>75</v>
+      <c r="C17" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>21</v>
@@ -2175,182 +2192,182 @@
 Slew
 Safe</v>
       </c>
-      <c r="F17" s="117" t="s">
-        <v>79</v>
+      <c r="F17" s="116" t="s">
+        <v>78</v>
       </c>
       <c r="G17" s="75"/>
       <c r="H17" s="44"/>
       <c r="I17" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="115"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="118"/>
+        <v>89</v>
+      </c>
+      <c r="F18" s="117"/>
       <c r="G18" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="44"/>
       <c r="I18" s="36"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="115"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="118"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="75"/>
       <c r="H19" s="44"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="115"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="71" t="str">
         <f>G10</f>
         <v>0.1 - 0.5 deg</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="75"/>
       <c r="H20" s="44"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="116"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="119"/>
+      <c r="F21" s="118"/>
       <c r="G21" s="74"/>
       <c r="H21" s="58"/>
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="114" t="s">
-        <v>82</v>
+      <c r="C22" s="113" t="s">
+        <v>81</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="117" t="s">
-        <v>98</v>
+      <c r="F22" s="116" t="s">
+        <v>97</v>
       </c>
       <c r="G22" s="73"/>
       <c r="H22" s="55"/>
       <c r="I22" s="56"/>
     </row>
     <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="115"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="118"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="75"/>
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="116"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="99"/>
-      <c r="F24" s="119"/>
+      <c r="F24" s="118"/>
       <c r="G24" s="74"/>
       <c r="H24" s="58"/>
       <c r="I24" s="59"/>
     </row>
     <row r="25" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>101</v>
-      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="117" t="s">
-        <v>105</v>
+      <c r="F25" s="116" t="s">
+        <v>104</v>
       </c>
       <c r="G25" s="73"/>
       <c r="H25" s="55"/>
       <c r="I25" s="91"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="115"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="118"/>
+      <c r="F26" s="117"/>
       <c r="G26" s="75"/>
       <c r="H26" s="44"/>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="115"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="118" t="s">
-        <v>106</v>
+      <c r="F27" s="117" t="s">
+        <v>105</v>
       </c>
       <c r="G27" s="75"/>
       <c r="H27" s="44"/>
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="115"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="118"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="75"/>
       <c r="H28" s="44"/>
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="115"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="118" t="s">
-        <v>107</v>
+      <c r="F29" s="117" t="s">
+        <v>106</v>
       </c>
       <c r="G29" s="75"/>
       <c r="H29" s="44"/>
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="116"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="119"/>
+      <c r="F30" s="118"/>
       <c r="G30" s="74"/>
       <c r="H30" s="58"/>
       <c r="I30" s="92"/>
     </row>
     <row r="31" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="9"/>
@@ -2721,12 +2738,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="F5:F9"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C13:C16"/>
@@ -2737,8 +2748,15 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="F5:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2746,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2765,78 +2783,78 @@
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="131"/>
+      <c r="F3" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="66"/>
       <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="119" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="120" t="s">
-        <v>83</v>
+      <c r="G5" s="124" t="s">
+        <v>82</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="115"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
@@ -2844,14 +2862,14 @@
         <v>31</v>
       </c>
       <c r="F6" s="52"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="115"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="43" t="s">
         <v>6</v>
       </c>
@@ -2859,12 +2877,12 @@
         <v>32</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="121"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="116"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="43" t="s">
         <v>50</v>
       </c>
@@ -2872,53 +2890,53 @@
         <v>34</v>
       </c>
       <c r="F8" s="102"/>
-      <c r="G8" s="122"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="127" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="68"/>
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="124"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="125"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="57" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="104"/>
       <c r="G11" s="74"/>
@@ -2926,263 +2944,263 @@
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="113" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="115"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="43"/>
       <c r="E13" s="9"/>
       <c r="F13" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="115"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="116"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="57" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="58"/>
       <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="114" t="s">
-        <v>75</v>
+      <c r="C16" s="113" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="117" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F16" s="116" t="s">
+        <v>78</v>
       </c>
       <c r="G16" s="75"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="131" t="s">
-        <v>112</v>
+      <c r="I16" s="133" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="115"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="118"/>
+        <v>80</v>
+      </c>
+      <c r="F17" s="117"/>
       <c r="G17" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="44"/>
-      <c r="I17" s="132"/>
+      <c r="I17" s="134"/>
     </row>
     <row r="18" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="115"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="75"/>
       <c r="H18" s="44"/>
       <c r="I18" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="114"/>
+      <c r="D19" s="43" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="115"/>
-      <c r="D19" s="43" t="s">
-        <v>89</v>
       </c>
       <c r="E19" s="106" t="str">
         <f>G9</f>
         <v>not used</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="75"/>
       <c r="H19" s="44"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="116"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="119"/>
+        <v>109</v>
+      </c>
+      <c r="F20" s="118"/>
       <c r="G20" s="74"/>
       <c r="H20" s="58"/>
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="114" t="s">
-        <v>82</v>
+      <c r="C21" s="113" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="117" t="s">
-        <v>98</v>
+      <c r="F21" s="116" t="s">
+        <v>97</v>
       </c>
       <c r="G21" s="73"/>
       <c r="H21" s="55"/>
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="115"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="118"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="75"/>
       <c r="H22" s="44"/>
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="116"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="99"/>
-      <c r="F23" s="119"/>
+      <c r="F23" s="118"/>
       <c r="G23" s="74"/>
       <c r="H23" s="58"/>
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="54" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="117" t="s">
-        <v>105</v>
+      <c r="F24" s="116" t="s">
+        <v>104</v>
       </c>
       <c r="G24" s="73"/>
       <c r="H24" s="55"/>
       <c r="I24" s="91"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="115"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="118"/>
+      <c r="F25" s="117"/>
       <c r="G25" s="75"/>
       <c r="H25" s="44"/>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="115"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="118" t="s">
-        <v>106</v>
+      <c r="F26" s="117" t="s">
+        <v>105</v>
       </c>
       <c r="G26" s="75"/>
       <c r="H26" s="44"/>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="115"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="118"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="75"/>
       <c r="H27" s="44"/>
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C28" s="115"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="118" t="s">
-        <v>107</v>
+      <c r="F28" s="117" t="s">
+        <v>106</v>
       </c>
       <c r="G28" s="75"/>
       <c r="H28" s="44"/>
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="116"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="119"/>
+      <c r="F29" s="118"/>
       <c r="G29" s="74"/>
       <c r="H29" s="58"/>
       <c r="I29" s="92"/>
     </row>
     <row r="30" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="9"/>
@@ -3553,22 +3571,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F21:F23"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="G5:G8"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3588,94 +3606,94 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="134" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="108" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="107" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="134">
+        <v>114</v>
+      </c>
+      <c r="B6" s="108">
         <v>43986</v>
       </c>
     </row>
     <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="134">
+        <v>99</v>
+      </c>
+      <c r="B7" s="108">
         <v>44016</v>
       </c>
     </row>
     <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="134">
+        <v>114</v>
+      </c>
+      <c r="B14" s="108">
         <v>43986</v>
       </c>
     </row>
     <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="134">
+        <v>99</v>
+      </c>
+      <c r="B15" s="108">
         <v>44016</v>
       </c>
     </row>
     <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
